--- a/Documentation/Project Schedule/Project Schedule.xlsx
+++ b/Documentation/Project Schedule/Project Schedule.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Game Challenge</t>
   </si>
@@ -54,27 +54,9 @@
     <t>Layout for Playback and Test Arena Page</t>
   </si>
   <si>
-    <t>Displaying Background in Phaser</t>
-  </si>
-  <si>
-    <t>Animation Loop</t>
-  </si>
-  <si>
-    <t>Playback Controls</t>
-  </si>
-  <si>
     <t>Initialization of Text, Objects, and Sprites</t>
   </si>
   <si>
-    <t>4 Verb Animations working</t>
-  </si>
-  <si>
-    <t>Bot Upload Compiler Errors</t>
-  </si>
-  <si>
-    <t>Client-Side Bot Upload</t>
-  </si>
-  <si>
     <t>Pull Playback Mode Game</t>
   </si>
   <si>
@@ -90,7 +72,28 @@
     <t>Polling for completion of turn request</t>
   </si>
   <si>
-    <t>IDE Text Editor area</t>
+    <t>Displaying Background Map in Phaser Module</t>
+  </si>
+  <si>
+    <t>Animation Loop Working</t>
+  </si>
+  <si>
+    <t>Playback Controls Working</t>
+  </si>
+  <si>
+    <t>IDE Text Editor area for editing bot code</t>
+  </si>
+  <si>
+    <t>Client-Side Bot Upload (prepare file to be sent to server)</t>
+  </si>
+  <si>
+    <t>Display Bot Upload Compiler Errors</t>
+  </si>
+  <si>
+    <t>All Verb Animations working</t>
+  </si>
+  <si>
+    <t>Capstone Presentation and Preparation</t>
   </si>
 </sst>
 </file>
@@ -129,7 +132,7 @@
       <name val="Liberation Sans1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,8 +183,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF00B0F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -274,7 +289,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -290,9 +305,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -305,8 +317,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -625,21 +646,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.125" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="10.625" customWidth="1"/>
     <col min="10" max="1020" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -660,159 +681,160 @@
       <c r="H1" s="2">
         <v>42487</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="9">
         <v>42496</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:13" ht="15">
+      <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="H2" s="7"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="H3" s="7"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="C4" s="16"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="H4" s="7"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="C5" s="16"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="H5" s="7"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="C6" s="16"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="H6" s="7"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="17"/>
+        <v>11</v>
+      </c>
+      <c r="C7" s="16"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="H7" s="7"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="C8" s="16"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="H8" s="7"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="H9" s="7"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1"/>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="H10" s="7"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1"/>
@@ -820,189 +842,186 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" ht="15">
-      <c r="A13" s="7" t="s">
+      <c r="I12" s="11"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" ht="15">
+      <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="H13" s="7"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="15"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="H14" s="7"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="H15" s="7"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="15"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1"/>
-      <c r="B19" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="15"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" ht="15">
+      <c r="A20" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="17"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:11" ht="15">
-      <c r="A21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="7"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11" ht="15">
+      <c r="A22" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="17"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="1:11" ht="15">
-      <c r="A23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="7"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1"/>
+      <c r="B23" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1"/>
       <c r="B24" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="12"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1"/>
       <c r="B25" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1010,12 +1029,12 @@
       <c r="F25" s="1"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="11"/>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1"/>
       <c r="B26" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1028,7 +1047,7 @@
     <row r="27" spans="1:11">
       <c r="A27" s="1"/>
       <c r="B27" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1039,35 +1058,36 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="1"/>
-      <c r="B28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="1:11" ht="15">
+      <c r="A29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="1.0456999999999999" right="0" top="0.39370000000000005" bottom="0.39370000000000005" header="0" footer="0"/>
   <pageSetup scale="72" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
